--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tctn1-Tmem67.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tctn1-Tmem67.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.055589666666667</v>
+        <v>1.894167</v>
       </c>
       <c r="H2">
-        <v>6.166769</v>
+        <v>5.682501</v>
       </c>
       <c r="I2">
-        <v>0.1150400298148961</v>
+        <v>0.08880272738170709</v>
       </c>
       <c r="J2">
-        <v>0.1150400298148962</v>
+        <v>0.08880272738170709</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.543446666666667</v>
+        <v>4.559506666666667</v>
       </c>
       <c r="N2">
-        <v>13.63034</v>
+        <v>13.67852</v>
       </c>
       <c r="O2">
-        <v>0.305297842646339</v>
+        <v>0.2891443386304051</v>
       </c>
       <c r="P2">
-        <v>0.305297842646339</v>
+        <v>0.289144338630405</v>
       </c>
       <c r="Q2">
-        <v>9.339462019051112</v>
+        <v>8.636467064280001</v>
       </c>
       <c r="R2">
-        <v>84.05515817146001</v>
+        <v>77.72820357852</v>
       </c>
       <c r="S2">
-        <v>0.03512147292045831</v>
+        <v>0.02567680587735986</v>
       </c>
       <c r="T2">
-        <v>0.03512147292045831</v>
+        <v>0.02567680587735986</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.055589666666667</v>
+        <v>1.894167</v>
       </c>
       <c r="H3">
-        <v>6.166769</v>
+        <v>5.682501</v>
       </c>
       <c r="I3">
-        <v>0.1150400298148961</v>
+        <v>0.08880272738170709</v>
       </c>
       <c r="J3">
-        <v>0.1150400298148962</v>
+        <v>0.08880272738170709</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>14.816766</v>
       </c>
       <c r="O3">
-        <v>0.3318718898278125</v>
+        <v>0.3132052302231143</v>
       </c>
       <c r="P3">
-        <v>0.3318718898278126</v>
+        <v>0.3132052302231142</v>
       </c>
       <c r="Q3">
-        <v>10.15239702767267</v>
+        <v>9.355143067974002</v>
       </c>
       <c r="R3">
-        <v>91.37157324905401</v>
+        <v>84.19628761176601</v>
       </c>
       <c r="S3">
-        <v>0.03817855210051747</v>
+        <v>0.02781347867402802</v>
       </c>
       <c r="T3">
-        <v>0.03817855210051749</v>
+        <v>0.02781347867402802</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.055589666666667</v>
+        <v>1.894167</v>
       </c>
       <c r="H4">
-        <v>6.166769</v>
+        <v>5.682501</v>
       </c>
       <c r="I4">
-        <v>0.1150400298148961</v>
+        <v>0.08880272738170709</v>
       </c>
       <c r="J4">
-        <v>0.1150400298148962</v>
+        <v>0.08880272738170709</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.355570666666666</v>
+        <v>3.218510666666667</v>
       </c>
       <c r="N4">
-        <v>7.066712</v>
+        <v>9.655531999999999</v>
       </c>
       <c r="O4">
-        <v>0.1582830603053919</v>
+        <v>0.2041041292672535</v>
       </c>
       <c r="P4">
-        <v>0.1582830603053919</v>
+        <v>0.2041041292672534</v>
       </c>
       <c r="Q4">
-        <v>4.842086721503111</v>
+        <v>6.096396693948</v>
       </c>
       <c r="R4">
-        <v>43.578780493528</v>
+        <v>54.867570245532</v>
       </c>
       <c r="S4">
-        <v>0.01820888797672529</v>
+        <v>0.01812500334880061</v>
       </c>
       <c r="T4">
-        <v>0.01820888797672529</v>
+        <v>0.01812500334880061</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.055589666666667</v>
+        <v>1.894167</v>
       </c>
       <c r="H5">
-        <v>6.166769</v>
+        <v>5.682501</v>
       </c>
       <c r="I5">
-        <v>0.1150400298148961</v>
+        <v>0.08880272738170709</v>
       </c>
       <c r="J5">
-        <v>0.1150400298148962</v>
+        <v>0.08880272738170709</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.044074333333333</v>
+        <v>3.052024666666667</v>
       </c>
       <c r="N5">
-        <v>9.132223</v>
+        <v>9.156074</v>
       </c>
       <c r="O5">
-        <v>0.2045472072204566</v>
+        <v>0.1935463018792272</v>
       </c>
       <c r="P5">
-        <v>0.2045472072204566</v>
+        <v>0.1935463018792272</v>
       </c>
       <c r="Q5">
-        <v>6.257367744165221</v>
+        <v>5.781044406786</v>
       </c>
       <c r="R5">
-        <v>56.316309697487</v>
+        <v>52.029399661074</v>
       </c>
       <c r="S5">
-        <v>0.02353111681719506</v>
+        <v>0.0171874394815186</v>
       </c>
       <c r="T5">
-        <v>0.02353111681719507</v>
+        <v>0.0171874394815186</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>25.492469</v>
       </c>
       <c r="I6">
-        <v>0.4755576856884562</v>
+        <v>0.3983810605389457</v>
       </c>
       <c r="J6">
-        <v>0.4755576856884562</v>
+        <v>0.3983810605389456</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.543446666666667</v>
+        <v>4.559506666666667</v>
       </c>
       <c r="N6">
-        <v>13.63034</v>
+        <v>13.67852</v>
       </c>
       <c r="O6">
-        <v>0.305297842646339</v>
+        <v>0.2891443386304051</v>
       </c>
       <c r="P6">
-        <v>0.305297842646339</v>
+        <v>0.289144338630405</v>
       </c>
       <c r="Q6">
-        <v>38.60789110105112</v>
+        <v>38.74436078509778</v>
       </c>
       <c r="R6">
-        <v>347.47101990946</v>
+        <v>348.6992470658799</v>
       </c>
       <c r="S6">
-        <v>0.1451867354945715</v>
+        <v>0.1151896282724128</v>
       </c>
       <c r="T6">
-        <v>0.1451867354945715</v>
+        <v>0.1151896282724128</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>25.492469</v>
       </c>
       <c r="I7">
-        <v>0.4755576856884562</v>
+        <v>0.3983810605389457</v>
       </c>
       <c r="J7">
-        <v>0.4755576856884562</v>
+        <v>0.3983810605389456</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>14.816766</v>
       </c>
       <c r="O7">
-        <v>0.3318718898278125</v>
+        <v>0.3132052302231143</v>
       </c>
       <c r="P7">
-        <v>0.3318718898278126</v>
+        <v>0.3132052302231142</v>
       </c>
       <c r="Q7">
         <v>41.96843865947267</v>
@@ -883,10 +883,10 @@
         <v>377.715947935254</v>
       </c>
       <c r="S7">
-        <v>0.1578242278715688</v>
+        <v>0.1247750317826289</v>
       </c>
       <c r="T7">
-        <v>0.1578242278715689</v>
+        <v>0.1247750317826289</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>25.492469</v>
       </c>
       <c r="I8">
-        <v>0.4755576856884562</v>
+        <v>0.3983810605389457</v>
       </c>
       <c r="J8">
-        <v>0.4755576856884562</v>
+        <v>0.3983810605389456</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.355570666666666</v>
+        <v>3.218510666666667</v>
       </c>
       <c r="N8">
-        <v>7.066712</v>
+        <v>9.655531999999999</v>
       </c>
       <c r="O8">
-        <v>0.1582830603053919</v>
+        <v>0.2041041292672535</v>
       </c>
       <c r="P8">
-        <v>0.1582830603053919</v>
+        <v>0.2041041292672534</v>
       </c>
       <c r="Q8">
-        <v>20.01643739910311</v>
+        <v>27.34926113205644</v>
       </c>
       <c r="R8">
-        <v>180.147936591928</v>
+        <v>246.143350188508</v>
       </c>
       <c r="S8">
-        <v>0.07527272584251853</v>
+        <v>0.0813112194778665</v>
       </c>
       <c r="T8">
-        <v>0.07527272584251854</v>
+        <v>0.08131121947786647</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>25.492469</v>
       </c>
       <c r="I9">
-        <v>0.4755576856884562</v>
+        <v>0.3983810605389457</v>
       </c>
       <c r="J9">
-        <v>0.4755576856884562</v>
+        <v>0.3983810605389456</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.044074333333333</v>
+        <v>3.052024666666667</v>
       </c>
       <c r="N9">
-        <v>9.132223</v>
+        <v>9.156074</v>
       </c>
       <c r="O9">
-        <v>0.2045472072204566</v>
+        <v>0.1935463018792272</v>
       </c>
       <c r="P9">
-        <v>0.2045472072204566</v>
+        <v>0.1935463018792272</v>
       </c>
       <c r="Q9">
-        <v>25.86699019206522</v>
+        <v>25.93454806741178</v>
       </c>
       <c r="R9">
-        <v>232.802911728587</v>
+        <v>233.410932606706</v>
       </c>
       <c r="S9">
-        <v>0.0972739964797974</v>
+        <v>0.07710518100603747</v>
       </c>
       <c r="T9">
-        <v>0.09727399647979741</v>
+        <v>0.07710518100603747</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.921228333333333</v>
+        <v>5.277913</v>
       </c>
       <c r="H10">
-        <v>8.763684999999999</v>
+        <v>15.833739</v>
       </c>
       <c r="I10">
-        <v>0.1634850573595927</v>
+        <v>0.2474402042076373</v>
       </c>
       <c r="J10">
-        <v>0.1634850573595927</v>
+        <v>0.2474402042076373</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.543446666666667</v>
+        <v>4.559506666666667</v>
       </c>
       <c r="N10">
-        <v>13.63034</v>
+        <v>13.67852</v>
       </c>
       <c r="O10">
-        <v>0.305297842646339</v>
+        <v>0.2891443386304051</v>
       </c>
       <c r="P10">
-        <v>0.305297842646339</v>
+        <v>0.289144338630405</v>
       </c>
       <c r="Q10">
-        <v>13.27244513365556</v>
+        <v>24.06467950958666</v>
       </c>
       <c r="R10">
-        <v>119.4520062029</v>
+        <v>216.58211558628</v>
       </c>
       <c r="S10">
-        <v>0.04991163531679663</v>
+        <v>0.07154593419618967</v>
       </c>
       <c r="T10">
-        <v>0.04991163531679663</v>
+        <v>0.07154593419618965</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.921228333333333</v>
+        <v>5.277913</v>
       </c>
       <c r="H11">
-        <v>8.763684999999999</v>
+        <v>15.833739</v>
       </c>
       <c r="I11">
-        <v>0.1634850573595927</v>
+        <v>0.2474402042076373</v>
       </c>
       <c r="J11">
-        <v>0.1634850573595927</v>
+        <v>0.2474402042076373</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>14.816766</v>
       </c>
       <c r="O11">
-        <v>0.3318718898278125</v>
+        <v>0.3132052302231143</v>
       </c>
       <c r="P11">
-        <v>0.3318718898278126</v>
+        <v>0.3132052302231142</v>
       </c>
       <c r="Q11">
-        <v>14.42771888252333</v>
+        <v>26.067200629786</v>
       </c>
       <c r="R11">
-        <v>129.84946994271</v>
+        <v>234.604805668074</v>
       </c>
       <c r="S11">
-        <v>0.05425609494453635</v>
+        <v>0.07749956612530746</v>
       </c>
       <c r="T11">
-        <v>0.05425609494453636</v>
+        <v>0.07749956612530745</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.921228333333333</v>
+        <v>5.277913</v>
       </c>
       <c r="H12">
-        <v>8.763684999999999</v>
+        <v>15.833739</v>
       </c>
       <c r="I12">
-        <v>0.1634850573595927</v>
+        <v>0.2474402042076373</v>
       </c>
       <c r="J12">
-        <v>0.1634850573595927</v>
+        <v>0.2474402042076373</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.355570666666666</v>
+        <v>3.218510666666667</v>
       </c>
       <c r="N12">
-        <v>7.066712</v>
+        <v>9.655531999999999</v>
       </c>
       <c r="O12">
-        <v>0.1582830603053919</v>
+        <v>0.2041041292672535</v>
       </c>
       <c r="P12">
-        <v>0.1582830603053919</v>
+        <v>0.2041041292672534</v>
       </c>
       <c r="Q12">
-        <v>6.881159772635554</v>
+        <v>16.98701928823867</v>
       </c>
       <c r="R12">
-        <v>61.93043795371999</v>
+        <v>152.883173594148</v>
       </c>
       <c r="S12">
-        <v>0.02587691519307886</v>
+        <v>0.05050356742551121</v>
       </c>
       <c r="T12">
-        <v>0.02587691519307887</v>
+        <v>0.0505035674255112</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.921228333333333</v>
+        <v>5.277913</v>
       </c>
       <c r="H13">
-        <v>8.763684999999999</v>
+        <v>15.833739</v>
       </c>
       <c r="I13">
-        <v>0.1634850573595927</v>
+        <v>0.2474402042076373</v>
       </c>
       <c r="J13">
-        <v>0.1634850573595927</v>
+        <v>0.2474402042076373</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.044074333333333</v>
+        <v>3.052024666666667</v>
       </c>
       <c r="N13">
-        <v>9.132223</v>
+        <v>9.156074</v>
       </c>
       <c r="O13">
-        <v>0.2045472072204566</v>
+        <v>0.1935463018792272</v>
       </c>
       <c r="P13">
-        <v>0.2045472072204566</v>
+        <v>0.1935463018792272</v>
       </c>
       <c r="Q13">
-        <v>8.892436191306111</v>
+        <v>16.10832066452067</v>
       </c>
       <c r="R13">
-        <v>80.03192572175499</v>
+        <v>144.974885980686</v>
       </c>
       <c r="S13">
-        <v>0.03344041190518083</v>
+        <v>0.04789113646062901</v>
       </c>
       <c r="T13">
-        <v>0.03344041190518084</v>
+        <v>0.04789113646062901</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.394165333333333</v>
+        <v>5.660484666666666</v>
       </c>
       <c r="H14">
-        <v>13.182496</v>
+        <v>16.981454</v>
       </c>
       <c r="I14">
-        <v>0.2459172271370549</v>
+        <v>0.2653760078717099</v>
       </c>
       <c r="J14">
-        <v>0.2459172271370549</v>
+        <v>0.2653760078717099</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.543446666666667</v>
+        <v>4.559506666666667</v>
       </c>
       <c r="N14">
-        <v>13.63034</v>
+        <v>13.67852</v>
       </c>
       <c r="O14">
-        <v>0.305297842646339</v>
+        <v>0.2891443386304051</v>
       </c>
       <c r="P14">
-        <v>0.305297842646339</v>
+        <v>0.289144338630405</v>
       </c>
       <c r="Q14">
-        <v>19.96465583651556</v>
+        <v>25.80901757423111</v>
       </c>
       <c r="R14">
-        <v>179.68190252864</v>
+        <v>232.28115816808</v>
       </c>
       <c r="S14">
-        <v>0.0750779989145126</v>
+        <v>0.07673197028444273</v>
       </c>
       <c r="T14">
-        <v>0.07507799891451261</v>
+        <v>0.07673197028444272</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.394165333333333</v>
+        <v>5.660484666666666</v>
       </c>
       <c r="H15">
-        <v>13.182496</v>
+        <v>16.981454</v>
       </c>
       <c r="I15">
-        <v>0.2459172271370549</v>
+        <v>0.2653760078717099</v>
       </c>
       <c r="J15">
-        <v>0.2459172271370549</v>
+        <v>0.2653760078717099</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>14.816766</v>
       </c>
       <c r="O15">
-        <v>0.3318718898278125</v>
+        <v>0.3132052302231143</v>
       </c>
       <c r="P15">
-        <v>0.3318718898278126</v>
+        <v>0.3132052302231142</v>
       </c>
       <c r="Q15">
-        <v>21.70243983643734</v>
+        <v>27.95669225086267</v>
       </c>
       <c r="R15">
-        <v>195.321958527936</v>
+        <v>251.610230257764</v>
       </c>
       <c r="S15">
-        <v>0.08161301491118983</v>
+        <v>0.08311715364114988</v>
       </c>
       <c r="T15">
-        <v>0.08161301491118986</v>
+        <v>0.08311715364114987</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.394165333333333</v>
+        <v>5.660484666666666</v>
       </c>
       <c r="H16">
-        <v>13.182496</v>
+        <v>16.981454</v>
       </c>
       <c r="I16">
-        <v>0.2459172271370549</v>
+        <v>0.2653760078717099</v>
       </c>
       <c r="J16">
-        <v>0.2459172271370549</v>
+        <v>0.2653760078717099</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.355570666666666</v>
+        <v>3.218510666666667</v>
       </c>
       <c r="N16">
-        <v>7.066712</v>
+        <v>9.655531999999999</v>
       </c>
       <c r="O16">
-        <v>0.1582830603053919</v>
+        <v>0.2041041292672535</v>
       </c>
       <c r="P16">
-        <v>0.1582830603053919</v>
+        <v>0.2041041292672534</v>
       </c>
       <c r="Q16">
-        <v>10.35076696368355</v>
+        <v>18.21833027816978</v>
       </c>
       <c r="R16">
-        <v>93.156902673152</v>
+        <v>163.964972503528</v>
       </c>
       <c r="S16">
-        <v>0.03892453129306922</v>
+        <v>0.05416433901507515</v>
       </c>
       <c r="T16">
-        <v>0.03892453129306923</v>
+        <v>0.05416433901507514</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.394165333333333</v>
+        <v>5.660484666666666</v>
       </c>
       <c r="H17">
-        <v>13.182496</v>
+        <v>16.981454</v>
       </c>
       <c r="I17">
-        <v>0.2459172271370549</v>
+        <v>0.2653760078717099</v>
       </c>
       <c r="J17">
-        <v>0.2459172271370549</v>
+        <v>0.2653760078717099</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.044074333333333</v>
+        <v>3.052024666666667</v>
       </c>
       <c r="N17">
-        <v>9.132223</v>
+        <v>9.156074</v>
       </c>
       <c r="O17">
-        <v>0.2045472072204566</v>
+        <v>0.1935463018792272</v>
       </c>
       <c r="P17">
-        <v>0.2045472072204566</v>
+        <v>0.1935463018792272</v>
       </c>
       <c r="Q17">
-        <v>13.37616590762311</v>
+        <v>17.27593882795511</v>
       </c>
       <c r="R17">
-        <v>120.385493168608</v>
+        <v>155.483449451596</v>
       </c>
       <c r="S17">
-        <v>0.05030168201828325</v>
+        <v>0.05136254493104214</v>
       </c>
       <c r="T17">
-        <v>0.05030168201828326</v>
+        <v>0.05136254493104214</v>
       </c>
     </row>
   </sheetData>
